--- a/public/excel/Employees.xlsx
+++ b/public/excel/Employees.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>job numer</t>
+    <t>job number</t>
   </si>
   <si>
     <t>name</t>
@@ -55,7 +55,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -416,7 +416,7 @@
     <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
